--- a/raw_data/resume.xlsx
+++ b/raw_data/resume.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>ticker</t>
   </si>
@@ -85,15 +85,15 @@
     <t>DOGE-USD-4h</t>
   </si>
   <si>
+    <t>LINK-USD-4h</t>
+  </si>
+  <si>
     <t>TRX-USD-4h</t>
   </si>
   <si>
     <t>DOT-USD-4h</t>
   </si>
   <si>
-    <t>LINK-USD-4h</t>
-  </si>
-  <si>
     <t>MATIC-USD-4h</t>
   </si>
   <si>
@@ -103,49 +103,46 @@
     <t>ICP-USD-4h</t>
   </si>
   <si>
+    <t>SHIB-USD-4h</t>
+  </si>
+  <si>
     <t>DAI-USD-4h</t>
   </si>
   <si>
-    <t>SHIB-USD-4h</t>
-  </si>
-  <si>
     <t>LTC-USD-4h</t>
   </si>
   <si>
     <t>BCH-USD-4h</t>
   </si>
   <si>
+    <t>UNI-USD-4h</t>
+  </si>
+  <si>
     <t>LEO-USD-4h</t>
   </si>
   <si>
+    <t>ETC-USD-4h</t>
+  </si>
+  <si>
     <t>ATOM-USD-4h</t>
   </si>
   <si>
-    <t>UNI-USD-4h</t>
-  </si>
-  <si>
-    <t>ETC-USD-4h</t>
+    <t>APT-USD-4h</t>
   </si>
   <si>
     <t>XLM-USD-4h</t>
   </si>
   <si>
-    <t>OKB-USD-4h</t>
+    <t>XMR-USD-4h</t>
   </si>
   <si>
     <t>INJ-USD-4h</t>
   </si>
   <si>
-    <t>APT-USD-4h</t>
-  </si>
-  <si>
-    <t>XMR-USD-4h</t>
-  </si>
-  <si>
-    <t>OP-USD-4h</t>
-  </si>
-  <si>
-    <t>2024-01-26 17:00:00-03:00</t>
+    <t>NEAR-USD-4h</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -506,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,34 +558,31 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>41977.97265625</v>
+        <v>43322.26953125</v>
       </c>
       <c r="E2">
-        <v>370761728</v>
+        <v>315506688</v>
       </c>
       <c r="F2">
-        <v>40600.90146644929</v>
+        <v>42868.48104331376</v>
       </c>
       <c r="G2">
-        <v>40260.682421875</v>
+        <v>42922.9912109375</v>
       </c>
       <c r="H2">
-        <v>40190.96302083333</v>
+        <v>42879.62890625</v>
       </c>
       <c r="I2">
-        <v>42394.42212538424</v>
+        <v>42828.0198633748</v>
       </c>
       <c r="K2">
-        <v>77.93878031077936</v>
+        <v>61.16065559544938</v>
       </c>
       <c r="L2">
-        <v>68.60658649501897</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
+        <v>58.77647287716027</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -599,31 +593,31 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>2253.548828125</v>
+        <v>2310.329833984375</v>
       </c>
       <c r="E3">
-        <v>18324480</v>
+        <v>65866240</v>
       </c>
       <c r="F3">
-        <v>2253.229236748595</v>
+        <v>2302.31143755337</v>
       </c>
       <c r="G3">
-        <v>2226.531750488281</v>
+        <v>2310.520947265625</v>
       </c>
       <c r="H3">
-        <v>2261.861669921875</v>
+        <v>2302.79794921875</v>
       </c>
       <c r="I3">
-        <v>2355.497217299294</v>
+        <v>2357.761518928957</v>
       </c>
       <c r="K3">
-        <v>53.16461587419092</v>
+        <v>53.93907866549559</v>
       </c>
       <c r="L3">
-        <v>46.91210777260474</v>
+        <v>52.99194454144926</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -634,31 +628,25 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>0.9998690485954284</v>
+        <v>0.999659538269043</v>
       </c>
       <c r="E4">
-        <v>583835648</v>
+        <v>287703040</v>
       </c>
       <c r="F4">
-        <v>0.9995768788396682</v>
-      </c>
-      <c r="G4">
-        <v>0.9995725482702253</v>
-      </c>
-      <c r="H4">
-        <v>0.9993784964084624</v>
+        <v>0.9996671030796164</v>
       </c>
       <c r="I4">
-        <v>0.9998718692578197</v>
+        <v>0.9998326668011829</v>
       </c>
       <c r="K4">
-        <v>59.1098113412467</v>
+        <v>53.25526401231596</v>
       </c>
       <c r="L4">
-        <v>57.47437785712476</v>
+        <v>52.15721375599363</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -669,31 +657,31 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>301.6986389160156</v>
+        <v>302.4570922851562</v>
       </c>
       <c r="E5">
-        <v>1013120</v>
+        <v>3496320</v>
       </c>
       <c r="F5">
-        <v>298.5954612375688</v>
+        <v>302.9235334636002</v>
       </c>
       <c r="G5">
-        <v>295.4406005859375</v>
+        <v>303.1027252197266</v>
       </c>
       <c r="H5">
-        <v>299.5763112386068</v>
+        <v>304.9566070556641</v>
       </c>
       <c r="I5">
-        <v>307.5518873846975</v>
+        <v>306.3297967444618</v>
       </c>
       <c r="K5">
-        <v>61.6812257342069</v>
+        <v>48.74147485399284</v>
       </c>
       <c r="L5">
-        <v>54.01709681131206</v>
+        <v>47.34546684133726</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -704,31 +692,31 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>92.05516052246094</v>
+        <v>101.2697448730469</v>
       </c>
       <c r="E6">
-        <v>61391232</v>
+        <v>19507968</v>
       </c>
       <c r="F6">
-        <v>88.86810362699019</v>
+        <v>99.2083717989681</v>
       </c>
       <c r="G6">
-        <v>87.75545501708984</v>
+        <v>99.64113388061523</v>
       </c>
       <c r="H6">
-        <v>86.88087793986003</v>
+        <v>99.80549443562826</v>
       </c>
       <c r="I6">
-        <v>94.98813233389892</v>
+        <v>96.23310980219935</v>
       </c>
       <c r="K6">
-        <v>64.1920385352236</v>
+        <v>59.79800750334471</v>
       </c>
       <c r="L6">
-        <v>59.2544719097303</v>
+        <v>57.42645532842634</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -739,31 +727,31 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>0.5308495163917542</v>
+        <v>0.5031853318214417</v>
       </c>
       <c r="E7">
-        <v>22090816</v>
+        <v>7751488</v>
       </c>
       <c r="F7">
-        <v>0.5207553916652919</v>
+        <v>0.508413761509576</v>
       </c>
       <c r="G7">
-        <v>0.5163158178329468</v>
+        <v>0.5063895031809806</v>
       </c>
       <c r="H7">
-        <v>0.5193521400292714</v>
+        <v>0.5144653926293056</v>
       </c>
       <c r="I7">
-        <v>0.5634864576538184</v>
+        <v>0.5428046606731746</v>
       </c>
       <c r="K7">
-        <v>67.36115586421909</v>
+        <v>42.06515828765551</v>
       </c>
       <c r="L7">
-        <v>58.4935917113807</v>
+        <v>41.14741540112943</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -774,31 +762,31 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>0.9999375939369202</v>
+        <v>1.00036609172821</v>
       </c>
       <c r="E8">
-        <v>124937728</v>
+        <v>54233088</v>
       </c>
       <c r="F8">
-        <v>1.000158354968103</v>
+        <v>1.000192385962328</v>
       </c>
       <c r="G8">
-        <v>1.000176408886909</v>
+        <v>1.00018737912178</v>
       </c>
       <c r="H8">
-        <v>1.000120455026626</v>
+        <v>1.000167004267375</v>
       </c>
       <c r="I8">
-        <v>1.000128664309641</v>
+        <v>1.000136634056717</v>
       </c>
       <c r="K8">
-        <v>39.82767599132718</v>
+        <v>57.97331328411148</v>
       </c>
       <c r="L8">
-        <v>43.81111524711455</v>
+        <v>55.60729033264257</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -809,31 +797,31 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>0.482044368982315</v>
+        <v>0.5180016160011292</v>
       </c>
       <c r="E9">
-        <v>11500768</v>
+        <v>2779296</v>
       </c>
       <c r="F9">
-        <v>0.4778805641465199</v>
+        <v>0.5069476580028324</v>
       </c>
       <c r="G9">
-        <v>0.4734981209039687</v>
+        <v>0.5072407066822052</v>
       </c>
       <c r="H9">
-        <v>0.4764818837245305</v>
+        <v>0.5079007029533387</v>
       </c>
       <c r="I9">
-        <v>0.5281595288761658</v>
+        <v>0.5145530953834832</v>
       </c>
       <c r="K9">
-        <v>56.75952910943222</v>
+        <v>65.1685236680005</v>
       </c>
       <c r="L9">
-        <v>51.74276673002589</v>
+        <v>60.50996044215234</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -844,31 +832,34 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>36.65820693969727</v>
+      </c>
+      <c r="E10">
+        <v>7524736</v>
+      </c>
+      <c r="F10">
+        <v>34.85513937338448</v>
+      </c>
+      <c r="G10">
+        <v>34.73144435882568</v>
+      </c>
+      <c r="H10">
+        <v>35.03556620279948</v>
+      </c>
+      <c r="I10">
+        <v>34.62424611140486</v>
+      </c>
+      <c r="K10">
+        <v>72.04494781074354</v>
+      </c>
+      <c r="L10">
+        <v>65.11178957924267</v>
+      </c>
+      <c r="N10" t="s">
         <v>43</v>
-      </c>
-      <c r="D10">
-        <v>32.248046875</v>
-      </c>
-      <c r="E10">
-        <v>15752832</v>
-      </c>
-      <c r="F10">
-        <v>31.19097918851024</v>
-      </c>
-      <c r="G10">
-        <v>30.83908214569092</v>
-      </c>
-      <c r="H10">
-        <v>30.60078779856364</v>
-      </c>
-      <c r="I10">
-        <v>34.77632169396957</v>
-      </c>
-      <c r="K10">
-        <v>62.79751788106041</v>
-      </c>
-      <c r="L10">
-        <v>57.72801200990524</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -879,31 +870,31 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>0.0798459276556968</v>
+        <v>0.07944471389055251</v>
       </c>
       <c r="E11">
-        <v>4558592</v>
+        <v>621264</v>
       </c>
       <c r="F11">
-        <v>0.07916428087231238</v>
+        <v>0.07958802071132609</v>
       </c>
       <c r="G11">
-        <v>0.0785802166908979</v>
+        <v>0.0795468661934137</v>
       </c>
       <c r="H11">
-        <v>0.07941335166494048</v>
+        <v>0.07995437632004417</v>
       </c>
       <c r="I11">
-        <v>0.08241274908255442</v>
+        <v>0.08047405061767304</v>
       </c>
       <c r="K11">
-        <v>59.00238443457931</v>
+        <v>48.37699358477952</v>
       </c>
       <c r="L11">
-        <v>52.97939061886307</v>
+        <v>48.177565812505</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -914,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>18.67032432556152</v>
+      </c>
+      <c r="E12">
+        <v>5694848</v>
+      </c>
+      <c r="F12">
+        <v>16.68669407119337</v>
+      </c>
+      <c r="G12">
+        <v>16.46812014579773</v>
+      </c>
+      <c r="H12">
+        <v>15.91957324345907</v>
+      </c>
+      <c r="I12">
+        <v>15.05926978387371</v>
+      </c>
+      <c r="K12">
+        <v>80.57604051111649</v>
+      </c>
+      <c r="L12">
+        <v>78.43213430530392</v>
+      </c>
+      <c r="N12" t="s">
         <v>43</v>
-      </c>
-      <c r="D12">
-        <v>0.1145699396729469</v>
-      </c>
-      <c r="E12">
-        <v>5253088</v>
-      </c>
-      <c r="F12">
-        <v>0.1116846255284216</v>
-      </c>
-      <c r="G12">
-        <v>0.1106971751898527</v>
-      </c>
-      <c r="H12">
-        <v>0.1100136985381444</v>
-      </c>
-      <c r="I12">
-        <v>0.1083368266258872</v>
-      </c>
-      <c r="K12">
-        <v>77.60424614668599</v>
-      </c>
-      <c r="L12">
-        <v>72.39879163147815</v>
-      </c>
-      <c r="N12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -952,31 +943,34 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>0.1168481260538101</v>
+      </c>
+      <c r="E13">
+        <v>203424</v>
+      </c>
+      <c r="F13">
+        <v>0.1148392760061748</v>
+      </c>
+      <c r="G13">
+        <v>0.1141827180981636</v>
+      </c>
+      <c r="H13">
+        <v>0.1137743386129538</v>
+      </c>
+      <c r="I13">
+        <v>0.1102884867457499</v>
+      </c>
+      <c r="K13">
+        <v>70.0982871290249</v>
+      </c>
+      <c r="L13">
+        <v>67.64642906462103</v>
+      </c>
+      <c r="N13" t="s">
         <v>43</v>
-      </c>
-      <c r="D13">
-        <v>6.656952857971191</v>
-      </c>
-      <c r="E13">
-        <v>4615664</v>
-      </c>
-      <c r="F13">
-        <v>6.516858812219808</v>
-      </c>
-      <c r="G13">
-        <v>6.451990008354187</v>
-      </c>
-      <c r="H13">
-        <v>6.442906713485717</v>
-      </c>
-      <c r="I13">
-        <v>7.259344067291146</v>
-      </c>
-      <c r="K13">
-        <v>63.33825318920584</v>
-      </c>
-      <c r="L13">
-        <v>56.74456034809683</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -987,31 +981,31 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14">
-        <v>14.07298851013184</v>
+        <v>6.971610069274902</v>
       </c>
       <c r="E14">
-        <v>4345952</v>
+        <v>863904</v>
       </c>
       <c r="F14">
-        <v>14.14931900250776</v>
+        <v>6.831204103391797</v>
       </c>
       <c r="G14">
-        <v>14.01268815994263</v>
+        <v>6.817834496498108</v>
       </c>
       <c r="H14">
-        <v>14.27430470784505</v>
+        <v>6.860542424519857</v>
       </c>
       <c r="I14">
-        <v>14.69925598923053</v>
+        <v>7.04918504940217</v>
       </c>
       <c r="K14">
-        <v>49.36000553516367</v>
+        <v>66.23422000242644</v>
       </c>
       <c r="L14">
-        <v>45.84552046338342</v>
+        <v>60.74719147808078</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1022,31 +1016,31 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>0.7564742565155029</v>
+        <v>0.8074175119400024</v>
       </c>
       <c r="E15">
-        <v>1437040</v>
+        <v>1611328</v>
       </c>
       <c r="F15">
-        <v>0.7429580978063989</v>
+        <v>0.8018080014250778</v>
       </c>
       <c r="G15">
-        <v>0.7339345961809158</v>
+        <v>0.8028077960014344</v>
       </c>
       <c r="H15">
-        <v>0.7389030079046885</v>
+        <v>0.8016550560792287</v>
       </c>
       <c r="I15">
-        <v>0.8315882547781983</v>
+        <v>0.8098068227577424</v>
       </c>
       <c r="K15">
-        <v>62.99609028796418</v>
+        <v>53.48247911202877</v>
       </c>
       <c r="L15">
-        <v>55.79246480865539</v>
+        <v>53.97844417863062</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1057,34 +1051,34 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>2.082154273986816</v>
+        <v>2.028560161590576</v>
       </c>
       <c r="E16">
-        <v>49802</v>
+        <v>16578</v>
       </c>
       <c r="F16">
-        <v>2.047965244795307</v>
+        <v>2.031336588157499</v>
       </c>
       <c r="G16">
-        <v>2.027536189556122</v>
+        <v>2.028522312641144</v>
       </c>
       <c r="H16">
-        <v>2.020679132143656</v>
+        <v>2.043597213427226</v>
       </c>
       <c r="I16">
-        <v>2.135505216196555</v>
+        <v>2.097963767186471</v>
       </c>
       <c r="K16">
-        <v>60.46052521592497</v>
+        <v>50.00934491749192</v>
       </c>
       <c r="L16">
-        <v>56.03972184910779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>48.47570451817662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1092,34 +1086,34 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>12.1367998123169</v>
+        <v>12.6170129776001</v>
       </c>
       <c r="E17">
-        <v>6187264</v>
+        <v>1937568</v>
       </c>
       <c r="F17">
-        <v>11.42975722252459</v>
+        <v>12.07498006030539</v>
       </c>
       <c r="G17">
-        <v>11.29355330467224</v>
+        <v>11.88636198043823</v>
       </c>
       <c r="H17">
-        <v>11.04824342727661</v>
+        <v>12.04412403106689</v>
       </c>
       <c r="I17">
-        <v>11.96004920926888</v>
+        <v>12.18581029014992</v>
       </c>
       <c r="K17">
-        <v>68.14934174720162</v>
+        <v>66.63363673427104</v>
       </c>
       <c r="L17">
-        <v>63.77887009597017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>61.77564555761869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1127,34 +1121,34 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>1.000126719474792</v>
+        <v>9.084730663744269E-06</v>
       </c>
       <c r="E18">
-        <v>1897120</v>
+        <v>2339576</v>
       </c>
       <c r="F18">
-        <v>1.000142861190041</v>
+        <v>9.041647146554986E-06</v>
       </c>
       <c r="G18">
-        <v>1.000162819027901</v>
+        <v>9.036689380081953E-06</v>
       </c>
       <c r="H18">
-        <v>1.000057417154312</v>
+        <v>9.074216783725812E-06</v>
       </c>
       <c r="I18">
-        <v>0.9999644668030573</v>
+        <v>9.309661577164456E-06</v>
       </c>
       <c r="K18">
-        <v>48.17882928067613</v>
+        <v>56.85376692264247</v>
       </c>
       <c r="L18">
-        <v>50.11853533907239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>53.18829059875395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1162,34 +1156,34 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>9.002989827422425E-06</v>
+        <v>0.9999960064888</v>
       </c>
       <c r="E19">
-        <v>1519816</v>
+        <v>548608</v>
       </c>
       <c r="F19">
-        <v>8.951190596418427E-06</v>
+        <v>1.000001691659883</v>
       </c>
       <c r="G19">
-        <v>8.884699309419374E-06</v>
+        <v>0.9999965935945511</v>
       </c>
       <c r="H19">
-        <v>8.914467828920654E-06</v>
+        <v>1.000018002589544</v>
       </c>
       <c r="I19">
-        <v>9.547101607063446E-06</v>
+        <v>1.000001023980231</v>
       </c>
       <c r="K19">
-        <v>55.64226261846415</v>
+        <v>50.12348993361548</v>
       </c>
       <c r="L19">
-        <v>51.5808426940195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>49.45764198877988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1197,34 +1191,34 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>66.92778015136719</v>
+        <v>68.21918487548828</v>
       </c>
       <c r="E20">
-        <v>4178432</v>
+        <v>811632</v>
       </c>
       <c r="F20">
-        <v>66.47909866181041</v>
+        <v>67.65663176692078</v>
       </c>
       <c r="G20">
-        <v>65.78804664611816</v>
+        <v>67.60930976867675</v>
       </c>
       <c r="H20">
-        <v>66.60824864705404</v>
+        <v>67.7606071472168</v>
       </c>
       <c r="I20">
-        <v>69.02372506711458</v>
+        <v>68.1086820418638</v>
       </c>
       <c r="K20">
-        <v>57.76234388695188</v>
+        <v>60.50294709291526</v>
       </c>
       <c r="L20">
-        <v>51.7219935980219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>56.49515858638046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1232,34 +1226,34 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>240.7476501464844</v>
+        <v>236.9251098632812</v>
       </c>
       <c r="E21">
-        <v>1931008</v>
+        <v>1425728</v>
       </c>
       <c r="F21">
-        <v>236.9539918997941</v>
+        <v>236.9841066376682</v>
       </c>
       <c r="G21">
-        <v>235.8034873962402</v>
+        <v>236.6995986938477</v>
       </c>
       <c r="H21">
-        <v>234.6990534464518</v>
+        <v>237.5462153116862</v>
       </c>
       <c r="I21">
-        <v>245.5880948027945</v>
+        <v>241.5453383642168</v>
       </c>
       <c r="K21">
-        <v>64.25998466238261</v>
+        <v>50.79344569186406</v>
       </c>
       <c r="L21">
-        <v>59.65220291864001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>48.90982468436307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1267,34 +1261,34 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>4.042808055877686</v>
+        <v>0.0001777535508153</v>
       </c>
       <c r="E22">
-        <v>94520</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>4.048782981562828</v>
+        <v>0.0001757656159991664</v>
       </c>
       <c r="G22">
-        <v>4.051523494720459</v>
+        <v>0.00017597099649715</v>
       </c>
       <c r="H22">
-        <v>4.031304001808167</v>
+        <v>0.0001757790242360034</v>
       </c>
       <c r="I22">
-        <v>4.014498580156861</v>
+        <v>0.0001818920248475807</v>
       </c>
       <c r="K22">
-        <v>45.20750777985095</v>
+        <v>62.07929934347272</v>
       </c>
       <c r="L22">
-        <v>49.95488002546064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>59.49897778398949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1302,34 +1296,34 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>9.651294708251951</v>
+        <v>4.019513607025146</v>
       </c>
       <c r="E23">
-        <v>1685976</v>
+        <v>3267</v>
       </c>
       <c r="F23">
-        <v>9.397715368069822</v>
+        <v>3.990166122732226</v>
       </c>
       <c r="G23">
-        <v>9.314784193038941</v>
+        <v>3.970114696025848</v>
       </c>
       <c r="H23">
-        <v>9.291244379679362</v>
+        <v>3.979597043991089</v>
       </c>
       <c r="I23">
-        <v>9.969416521463478</v>
+        <v>4.010496030451946</v>
       </c>
       <c r="K23">
-        <v>65.8012969398105</v>
+        <v>62.7314738915606</v>
       </c>
       <c r="L23">
-        <v>59.64610831859999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>56.42987519495772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1337,37 +1331,34 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>0.0001708547933958</v>
+        <v>25.29778861999512</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3043280</v>
       </c>
       <c r="F24">
-        <v>0.0001661145285649445</v>
+        <v>24.64369119019874</v>
       </c>
       <c r="G24">
-        <v>0.000164820704230755</v>
+        <v>24.79950084686279</v>
       </c>
       <c r="H24">
-        <v>0.0001646114057317433</v>
+        <v>24.58592510223389</v>
       </c>
       <c r="I24">
-        <v>0.000187107558611629</v>
+        <v>24.17238944833287</v>
       </c>
       <c r="K24">
-        <v>71.6702850204346</v>
+        <v>64.33618278943399</v>
       </c>
       <c r="L24">
-        <v>64.20632116352061</v>
-      </c>
-      <c r="N24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>60.14419224411004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1375,34 +1366,34 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25">
-        <v>23.94462966918945</v>
+        <v>9.217463493347168</v>
       </c>
       <c r="E25">
-        <v>2941664</v>
+        <v>555016</v>
       </c>
       <c r="F25">
-        <v>23.35294860190124</v>
+        <v>9.25741774234354</v>
       </c>
       <c r="G25">
-        <v>23.06987295150757</v>
+        <v>9.235952997207642</v>
       </c>
       <c r="H25">
-        <v>23.13701197306315</v>
+        <v>9.35329106648763</v>
       </c>
       <c r="I25">
-        <v>23.51086344227672</v>
+        <v>9.668327580910164</v>
       </c>
       <c r="K25">
-        <v>63.10382643294706</v>
+        <v>46.96301258752161</v>
       </c>
       <c r="L25">
-        <v>56.94183267419063</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>44.19507300758205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1410,37 +1401,34 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>0.1156468540430069</v>
+        <v>0.0015301641542464</v>
       </c>
       <c r="E26">
-        <v>593072</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.1132864765764119</v>
+        <v>0.001561837602620202</v>
       </c>
       <c r="G26">
-        <v>0.1125071477144956</v>
+        <v>0.00155077798990527</v>
       </c>
       <c r="H26">
-        <v>0.112507440149784</v>
+        <v>0.001603699083595177</v>
       </c>
       <c r="I26">
-        <v>0.1186527946463715</v>
+        <v>0.001698908487169831</v>
       </c>
       <c r="K26">
-        <v>72.35710076442297</v>
+        <v>36.97553142938011</v>
       </c>
       <c r="L26">
-        <v>63.68994279619825</v>
-      </c>
-      <c r="N26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>39.77100145357881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1448,37 +1436,34 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>54.64007568359375</v>
+        <v>0.1098348274827003</v>
       </c>
       <c r="E27">
-        <v>129050</v>
+        <v>218184</v>
       </c>
       <c r="F27">
-        <v>51.10535775466999</v>
+        <v>0.110940775055619</v>
       </c>
       <c r="G27">
-        <v>49.54653701782227</v>
+        <v>0.1108035556972026</v>
       </c>
       <c r="H27">
-        <v>50.19208196004232</v>
+        <v>0.1122988700866699</v>
       </c>
       <c r="I27">
-        <v>53.07366262534175</v>
+        <v>0.1153018952753667</v>
       </c>
       <c r="K27">
-        <v>83.08401754932493</v>
+        <v>40.28749135206413</v>
       </c>
       <c r="L27">
-        <v>72.56258366564323</v>
-      </c>
-      <c r="N27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>38.97143693557055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1486,34 +1471,34 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>33.81195068359375</v>
+        <v>168.7614898681641</v>
       </c>
       <c r="E28">
-        <v>1472640</v>
+        <v>420568</v>
       </c>
       <c r="F28">
-        <v>33.05149482824332</v>
+        <v>166.2506979557265</v>
       </c>
       <c r="G28">
-        <v>32.62210350036621</v>
+        <v>165.4363670349121</v>
       </c>
       <c r="H28">
-        <v>32.94842332204183</v>
+        <v>165.5574071248372</v>
       </c>
       <c r="I28">
-        <v>36.22134952741681</v>
+        <v>158.5359208419881</v>
       </c>
       <c r="K28">
-        <v>59.39287479668717</v>
+        <v>64.21846231170009</v>
       </c>
       <c r="L28">
-        <v>53.64840935600441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>62.04235085518636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1521,37 +1506,34 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>0.001467254362069</v>
+        <v>35.01321029663086</v>
       </c>
       <c r="E29">
-        <v>46</v>
+        <v>1914576</v>
       </c>
       <c r="F29">
-        <v>0.001712025097209757</v>
+        <v>34.77352938299428</v>
       </c>
       <c r="G29">
-        <v>0.0017781358561478</v>
+        <v>34.68130207061768</v>
       </c>
       <c r="H29">
-        <v>0.00183680988848204</v>
+        <v>35.56052169799805</v>
       </c>
       <c r="I29">
-        <v>0.001923205357542219</v>
+        <v>36.4577055666252</v>
       </c>
       <c r="K29">
-        <v>18.20381591444781</v>
+        <v>54.77227422474035</v>
       </c>
       <c r="L29">
-        <v>28.90811862810316</v>
-      </c>
-      <c r="M29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>51.08625809671412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1559,66 +1541,31 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>158.5753631591797</v>
+        <v>2.920757532119751</v>
       </c>
       <c r="E30">
-        <v>2273904</v>
+        <v>326568</v>
       </c>
       <c r="F30">
-        <v>156.1787382719976</v>
+        <v>2.892422535515172</v>
       </c>
       <c r="G30">
-        <v>155.0632209777832</v>
+        <v>2.89925594329834</v>
       </c>
       <c r="H30">
-        <v>154.3758341471354</v>
+        <v>2.922496318817139</v>
       </c>
       <c r="I30">
-        <v>157.1517440389837</v>
+        <v>3.09490145151102</v>
       </c>
       <c r="K30">
-        <v>60.1457309104022</v>
+        <v>55.93010118839348</v>
       </c>
       <c r="L30">
-        <v>57.75694959041146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31">
-        <v>3.044594049453736</v>
-      </c>
-      <c r="E31">
-        <v>2378016</v>
-      </c>
-      <c r="F31">
-        <v>2.966589527554883</v>
-      </c>
-      <c r="G31">
-        <v>2.897910559177399</v>
-      </c>
-      <c r="H31">
-        <v>2.911435039838155</v>
-      </c>
-      <c r="I31">
-        <v>3.342331895810608</v>
-      </c>
-      <c r="K31">
-        <v>59.11051282494729</v>
-      </c>
-      <c r="L31">
-        <v>55.5685733580187</v>
+        <v>52.5995333088611</v>
       </c>
     </row>
   </sheetData>
